--- a/biology/Botanique/Protophyte/Protophyte.xlsx
+++ b/biology/Botanique/Protophyte/Protophyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les protophytes sont un regroupement obsolète d'organismes eucaryotes unicellulaires (protistes) présentant une affinité supposée avec les végétaux en ce sens que ce sont des organismes autotrophes. En phycologie, ils comprennent entre autres :
 les Chlorophycées ;
